--- a/error_rankings/biodivner/pure_noise_full_prompts_large_models_error_category_ranking.xlsx
+++ b/error_rankings/biodivner/pure_noise_full_prompts_large_models_error_category_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENVIRONMENT</t>
+          <t>PROJECT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,52 +479,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PROJECT</t>
+          <t>INSTRUMENT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENVIRONMENT </t>
+          <t>ORGANISM part</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>INSTRUMENT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ORGANISM part</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C7" t="n">
         <v>3</v>
       </c>
     </row>
